--- a/assignment/tran-quang-lam/assignment-webui/Data Files/Excel files/quan-ly-san-pham-va-gio-hang.xlsx
+++ b/assignment/tran-quang-lam/assignment-webui/Data Files/Excel files/quan-ly-san-pham-va-gio-hang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\katalon\assignment\tran-quang-lam\assignment-webui\Data Files\Excel files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DCB4AB8-5D7C-4E4C-BC49-0728B2FCE7A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{116145FA-7990-4398-AEAF-F58AB1BDA594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{595C574F-D71C-4844-BA6E-D6AFBE824FF0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>searchName</t>
   </si>
@@ -504,7 +504,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -595,9 +595,6 @@
       <c r="B9" t="s">
         <v>2</v>
       </c>
-      <c r="C9" t="s">
-        <v>3</v>
-      </c>
       <c r="F9" s="2" t="s">
         <v>20</v>
       </c>

--- a/assignment/tran-quang-lam/assignment-webui/Data Files/Excel files/quan-ly-san-pham-va-gio-hang.xlsx
+++ b/assignment/tran-quang-lam/assignment-webui/Data Files/Excel files/quan-ly-san-pham-va-gio-hang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\katalon\assignment\tran-quang-lam\assignment-webui\Data Files\Excel files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{116145FA-7990-4398-AEAF-F58AB1BDA594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2932C80C-8136-4629-A563-3E1F0A2EC1CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{595C574F-D71C-4844-BA6E-D6AFBE824FF0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>searchName</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>product</t>
+  </si>
+  <si>
+    <t>quantity</t>
   </si>
 </sst>
 </file>
@@ -501,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46E94FF-EE96-48E7-8F97-ACC59D3CCA99}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -515,7 +518,7 @@
     <col min="7" max="7" width="14.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -540,13 +543,16 @@
       <c r="H1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -557,27 +563,33 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -588,7 +600,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -602,7 +614,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
